--- a/QAlegand/src/test/resources/TestData.xlsx
+++ b/QAlegand/src/test/resources/TestData.xlsx
@@ -4,30 +4,75 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="3090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="3090" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePageTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidMailTest" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidMailTest" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="4" r:id="rId4"/>
+    <sheet name="AddUserTest" sheetId="5" r:id="rId5"/>
+    <sheet name="UserActionsPageTest" sheetId="6" r:id="rId6"/>
+    <sheet name="AdminUpdateTest" sheetId="7" r:id="rId7"/>
+    <sheet name="KitchenTest" sheetId="8" r:id="rId8"/>
+    <sheet name="SheeStockTransferPageTest" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Sneharaj@gmail.com</t>
+  </si>
+  <si>
+    <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
+    <t>bdcjc@gmail.com</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sneharaj </t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Profile updated successfully</t>
+  </si>
+  <si>
+    <t>Demo Company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,13 +95,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,20 +408,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>123456</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
